--- a/REVER_DailyTracker_20200921.xlsx
+++ b/REVER_DailyTracker_20200921.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340FBE1-E7DF-44FA-AD21-49D3133C1140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD86E71-BE33-4285-8027-A996CD7FFE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2582,7 +2582,9 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <v>44095</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>168</v>
       </c>
@@ -2661,7 +2663,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
